--- a/Documents/Team Backlog.xlsx
+++ b/Documents/Team Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharb\OneDrive\Documents\GitHub\MovingCarProject\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharb\OneDrive\Documents\GitHub\Sprints_AirConditioningSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED3FF61-FAC2-43C8-B026-8A870785014C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C5218F-2BBC-4C9E-8D80-269154EC4FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{875C6DCD-AFAF-4A5F-9F21-083CA0FCED6F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>Task Name</t>
   </si>
@@ -57,96 +57,21 @@
     <t>3 hours</t>
   </si>
   <si>
-    <t>Design PWM with normal mode</t>
-  </si>
-  <si>
     <t>4 hours</t>
   </si>
   <si>
-    <t>6 hours</t>
-  </si>
-  <si>
-    <t>Implement external interrupts</t>
-  </si>
-  <si>
-    <t>Design external interrupts</t>
-  </si>
-  <si>
     <t>2 hours</t>
   </si>
   <si>
-    <t>Implement PWM with normal mode</t>
-  </si>
-  <si>
-    <t>test external interrupts Driver</t>
-  </si>
-  <si>
-    <t>test PWM with normal mode Driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driver Docs </t>
-  </si>
-  <si>
-    <t>MCAL _PWM Module Design</t>
-  </si>
-  <si>
-    <t>HAL_HPWM Design</t>
-  </si>
-  <si>
-    <t>MCAL_PWM Module Implementation</t>
-  </si>
-  <si>
-    <t>HAL_HPWM Implementaton</t>
-  </si>
-  <si>
-    <t>PWM Module Testing</t>
-  </si>
-  <si>
     <t>1.5 hour</t>
   </si>
   <si>
     <t>30 minutes</t>
   </si>
   <si>
-    <t>1.25 hour</t>
-  </si>
-  <si>
     <t>45 minutes</t>
   </si>
   <si>
-    <t>HAL_PushButton Design</t>
-  </si>
-  <si>
-    <t>HAL_PushButton Implementation</t>
-  </si>
-  <si>
-    <t>HAL_PushButton Testing</t>
-  </si>
-  <si>
-    <t>HAL_LED Design</t>
-  </si>
-  <si>
-    <t>HAL_LED Implementation</t>
-  </si>
-  <si>
-    <t>HAL_LED Testing</t>
-  </si>
-  <si>
-    <t>MCAL_DIO Design</t>
-  </si>
-  <si>
-    <t>MCAL_DIO Implementation</t>
-  </si>
-  <si>
-    <t>MCAL_DIO Testing</t>
-  </si>
-  <si>
-    <t>COMMON_STDTYPES</t>
-  </si>
-  <si>
-    <t>COMMON_BitMath</t>
-  </si>
-  <si>
     <t>Sherif Ashraf</t>
   </si>
   <si>
@@ -156,58 +81,94 @@
     <t>15 minutes</t>
   </si>
   <si>
-    <t>10 minutes</t>
-  </si>
-  <si>
-    <t>MCAL_TIMER0 Design</t>
-  </si>
-  <si>
-    <t>MCAL_TIMER0 Implementation</t>
-  </si>
-  <si>
-    <t>MCAL_TIMER0 Testing</t>
-  </si>
-  <si>
-    <t>HAL_TIMER0_HANDLER Implementation</t>
-  </si>
-  <si>
-    <t>HAL_TIMER0_HANDLER Testing</t>
-  </si>
-  <si>
-    <t>HAL_MOTOR Design</t>
-  </si>
-  <si>
-    <t>HAL_MOTOR Implementation</t>
-  </si>
-  <si>
-    <t>HAL_MOTOR Testing</t>
-  </si>
-  <si>
-    <t>COMMON_VECTOR Table</t>
-  </si>
-  <si>
     <t>Alaa Hisham</t>
   </si>
   <si>
     <t>Integrate all Drivers</t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>8 hours</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>5 hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAL_TIMER0_HANDLER Design </t>
-  </si>
-  <si>
     <t>Documentation</t>
+  </si>
+  <si>
+    <t>MCAL_DIO_DESIGN</t>
+  </si>
+  <si>
+    <t>MCAL_DIO_IMPLEMENTATION</t>
+  </si>
+  <si>
+    <t>MCAL_DIO_TESTING</t>
+  </si>
+  <si>
+    <t>ECU_LCD_DESIGN</t>
+  </si>
+  <si>
+    <t>ECU_LCD_IMPLEMENTATION</t>
+  </si>
+  <si>
+    <t>ECU_LCD_TESTING</t>
+  </si>
+  <si>
+    <t>ECU_KEYPAD_DESIGN</t>
+  </si>
+  <si>
+    <t>ECU_KEYPAD_IMPLEMENTATION</t>
+  </si>
+  <si>
+    <t>ECU_KEYPAD_TESTING</t>
+  </si>
+  <si>
+    <t>MCAL_ADC_DESIGN</t>
+  </si>
+  <si>
+    <t>MCAL_ADC_IMPLEMENTATION</t>
+  </si>
+  <si>
+    <t>MCAL_ADC_TESTING</t>
+  </si>
+  <si>
+    <t>MCAL_TIMER_DESIGN</t>
+  </si>
+  <si>
+    <t>MCAL_TIMER_IMPLEMENTATION</t>
+  </si>
+  <si>
+    <t>MCAL_TIMER_TESTING</t>
+  </si>
+  <si>
+    <t>ECU_BUZZER_DESIGN</t>
+  </si>
+  <si>
+    <t>ECU_BUZZER_IMPLEMENTATION</t>
+  </si>
+  <si>
+    <t>ECU_BUZZER_TESTING</t>
+  </si>
+  <si>
+    <t>ECU_TEMPSENSOR_DESIGN</t>
+  </si>
+  <si>
+    <t>ECU_TEMPSENSOR_IMPLEMENTATION</t>
+  </si>
+  <si>
+    <t>ECU_TEMPSENSOR_TESTING</t>
+  </si>
+  <si>
+    <t>APP_DESIGN</t>
+  </si>
+  <si>
+    <t>APP_IMPLEMENTATION</t>
+  </si>
+  <si>
+    <t>APP_TESTING</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>10 hours</t>
+  </si>
+  <si>
+    <t>110 minutes</t>
   </si>
 </sst>
 </file>
@@ -612,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C123E326-AE56-4BD1-BFE1-3D77BAFFAE7E}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -660,10 +621,10 @@
         <v>100</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -683,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -691,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -700,10 +661,10 @@
         <v>100</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,7 +672,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -720,10 +681,10 @@
         <v>100</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -731,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -740,10 +701,10 @@
         <v>100</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -751,7 +712,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -760,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,7 +732,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -780,10 +741,10 @@
         <v>100</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,7 +752,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -800,10 +761,10 @@
         <v>100</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -811,7 +772,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -820,10 +781,10 @@
         <v>100</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -831,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1">
         <v>100</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -851,19 +812,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
         <v>100</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -871,19 +832,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
         <v>100</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -891,19 +852,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
         <v>100</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,19 +872,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1">
         <v>100</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,19 +892,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1">
         <v>100</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -951,19 +912,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1">
         <v>100</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -971,19 +932,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1">
         <v>100</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -991,19 +952,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1">
         <v>100</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1011,19 +972,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1">
         <v>100</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,19 +992,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1">
         <v>100</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1051,19 +1012,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1">
         <v>100</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1071,19 +1032,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1">
         <v>100</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1091,19 +1052,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1">
         <v>100</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1114,16 +1075,16 @@
         <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1">
         <v>100</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,19 +1092,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D26" s="1">
         <v>100</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,219 +1112,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1">
         <v>100</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="1">
-        <v>100</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="1">
-        <v>100</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="1">
-        <v>100</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="1">
-        <v>100</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="1">
-        <v>100</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="1">
-        <v>100</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="1">
-        <v>100</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="1">
-        <v>100</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="1">
-        <v>100</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="1">
-        <v>100</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Team Backlog.xlsx
+++ b/Documents/Team Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharb\OneDrive\Documents\GitHub\Sprints_AirConditioningSystem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C5218F-2BBC-4C9E-8D80-269154EC4FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97431D87-7E27-4C67-A3F2-93AC9B1B39BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{875C6DCD-AFAF-4A5F-9F21-083CA0FCED6F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
   <si>
     <t>Task Name</t>
   </si>
@@ -126,15 +126,6 @@
     <t>MCAL_ADC_TESTING</t>
   </si>
   <si>
-    <t>MCAL_TIMER_DESIGN</t>
-  </si>
-  <si>
-    <t>MCAL_TIMER_IMPLEMENTATION</t>
-  </si>
-  <si>
-    <t>MCAL_TIMER_TESTING</t>
-  </si>
-  <si>
     <t>ECU_BUZZER_DESIGN</t>
   </si>
   <si>
@@ -169,6 +160,18 @@
   </si>
   <si>
     <t>110 minutes</t>
+  </si>
+  <si>
+    <t>TIMER_DESIGN</t>
+  </si>
+  <si>
+    <t>TIMER_IMPLEMENTATION</t>
+  </si>
+  <si>
+    <t>TIMER_TESTING</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +855,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -872,7 +875,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>18</v>
@@ -892,7 +895,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
@@ -912,7 +915,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>18</v>
@@ -932,7 +935,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
@@ -952,7 +955,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
@@ -961,10 +964,10 @@
         <v>100</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -972,7 +975,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
@@ -992,7 +995,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
@@ -1012,7 +1015,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
@@ -1032,7 +1035,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>18</v>
@@ -1052,7 +1055,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>18</v>
@@ -1072,10 +1075,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1">
         <v>100</v>
@@ -1084,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1095,7 +1098,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1">
         <v>100</v>
@@ -1115,7 +1118,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D27" s="1">
         <v>100</v>
@@ -1124,7 +1127,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
